--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,16 +990,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -967,8 +1021,14 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -996,8 +1056,14 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1106,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1141,14 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,16 +1176,22 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1125,8 +1211,14 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,16 +1281,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1212,16 +1316,22 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1241,8 +1351,14 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,16 +1526,22 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1415,8 +1561,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,16 +1596,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1473,42 +1631,54 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1705,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1562,8 +1736,14 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,16 +1771,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1617,11 +1803,17 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,37 +1841,49 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1687,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1699,16 +1903,22 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2156,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1919,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -1931,16 +2183,22 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2256,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2291,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2326,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +2361,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2536,14 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,22 +2726,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-100</v>
       </c>
       <c r="H72" s="3">
         <v>-100</v>
@@ -2411,10 +2759,16 @@
         <v>-100</v>
       </c>
       <c r="K72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2866,14 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2509,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,50 +2936,62 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2621,8 +3011,14 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,16 +3236,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2832,13 +3266,19 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3104,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3119,13 +3611,19 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,16 +3651,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3180,6 +3684,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1031,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1027,8 +1054,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1069,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1062,8 +1092,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1146,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,8 +1222,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1237,7 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1217,8 +1260,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1336,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1351,7 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1322,8 +1374,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1334,7 +1389,7 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1357,8 +1412,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,8 +1602,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,7 +1617,7 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1567,8 +1640,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1678,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1693,7 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1637,48 +1716,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,20 +1793,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,19 +1867,22 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1809,11 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1873,29 +1972,32 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -1909,16 +2011,19 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,31 +2057,34 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,20 +2285,23 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2189,16 +2315,19 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2276,17 +2410,17 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,13 +2431,16 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2332,13 +2469,16 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,31 +2545,34 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,13 +2697,16 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +2903,28 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-200</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
       </c>
       <c r="H72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I72" s="3">
         <v>-100</v>
@@ -2765,10 +2939,13 @@
         <v>-100</v>
       </c>
       <c r="M72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,20 +3055,23 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3131,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2994,7 +3189,7 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3017,8 +3212,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,19 +3456,22 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3272,13 +3489,16 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,11 +3842,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3617,13 +3863,16 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,20 +3906,23 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -762,16 +769,22 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -800,16 +813,22 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,25 +1070,27 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1057,25 +1110,31 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1095,8 +1154,14 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,13 +1176,15 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,25 +1260,31 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1225,13 +1304,19 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1240,10 +1325,10 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1263,8 +1348,14 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,14 +1365,14 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,13 +1436,19 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1354,10 +1457,10 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1377,13 +1480,19 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1392,10 +1501,10 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1415,8 +1524,14 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,13 +1700,19 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1605,13 +1744,19 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1620,10 +1765,10 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1643,8 +1788,14 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,13 +1832,19 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1696,10 +1853,10 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -1719,51 +1876,63 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,26 +1965,28 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,25 +2049,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1905,11 +2090,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1975,35 +2172,41 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2014,16 +2217,22 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,19 +2269,25 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2086,11 +2301,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,26 +2533,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2318,16 +2569,22 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,16 +2617,18 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2422,11 +2689,11 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2434,20 +2701,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -2472,20 +2745,26 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,19 +2833,25 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2574,11 +2865,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,20 +3009,26 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,31 +3247,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-100</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
@@ -2942,10 +3289,16 @@
         <v>-100</v>
       </c>
       <c r="N72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,26 +3423,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,56 +3511,68 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -3192,10 +3581,10 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -3215,8 +3604,14 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,26 +3886,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3492,13 +3925,19 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,26 +4318,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3866,13 +4357,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,26 +4406,32 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,14 +748,14 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -775,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,14 +798,14 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,14 +848,14 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1124,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1116,31 +1170,37 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1160,8 +1220,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-43100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1222,13 +1290,19 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1266,31 +1340,37 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1310,19 +1390,25 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-43100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1331,10 +1417,10 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1354,8 +1440,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,20 +1457,20 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1540,25 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-43100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1463,10 +1567,10 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1486,19 +1590,25 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-43100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1507,10 +1617,10 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1530,8 +1640,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>43100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1750,19 +1890,25 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-43100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -1771,10 +1917,10 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1794,8 +1940,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1990,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-43100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -1859,10 +2017,10 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1882,57 +2040,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2139,34 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,31 +2235,37 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2096,11 +2282,17 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,31 +2335,37 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2178,41 +2376,47 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>900</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2223,16 +2427,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2289,11 +2505,11 @@
       <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2307,11 +2523,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2319,8 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2785,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2575,16 +2827,22 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,14 +2890,14 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2663,8 +2925,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,22 +2940,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2695,11 +2963,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2707,26 +2975,32 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -2751,26 +3025,32 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
@@ -2795,8 +3075,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,25 +3125,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2871,11 +3163,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,26 +3325,32 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,37 +3595,43 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-100</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
@@ -3295,10 +3643,16 @@
         <v>-100</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3795,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,23 +3810,23 @@
         <v>500</v>
       </c>
       <c r="E76" s="3">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3895,80 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-43100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -3587,10 +3977,10 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3610,8 +4000,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +4024,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,32 +4320,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3931,13 +4365,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4394,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4540,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,32 +4810,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4363,13 +4855,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,23 +4925,23 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,11 +757,11 @@
         <v>600</v>
       </c>
       <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -789,13 +792,16 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -804,11 +810,11 @@
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,13 +845,16 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -854,11 +863,11 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1161,7 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1144,7 +1170,7 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1153,7 +1179,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1176,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,16 +1214,16 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1203,7 +1232,7 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-43100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1296,16 +1329,19 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1346,13 +1382,16 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1360,20 +1399,20 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1396,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,13 +1447,13 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-43100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1423,7 +1465,7 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1446,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1463,8 +1508,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1472,8 +1517,8 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,13 +1606,13 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-43100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1573,7 +1624,7 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1596,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,13 +1659,13 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-43100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1623,7 +1677,7 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,11 +1924,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>43100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1896,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,13 +1977,13 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-43100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1923,7 +1995,7 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,13 +2083,13 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-43100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2023,7 +2101,7 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,35 +2226,36 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
       </c>
       <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,34 +2330,37 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2288,11 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,10 +2448,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2367,8 +2465,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2382,44 +2480,47 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>900</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
+        <v>900</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2433,16 +2534,19 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,13 +2595,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2511,8 +2618,8 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2529,8 +2636,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,35 +2913,38 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1000</v>
       </c>
       <c r="F54" s="3">
         <v>1000</v>
       </c>
       <c r="G54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2833,16 +2958,19 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2896,11 +3026,11 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2946,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2969,8 +3102,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,16 +3114,19 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -2999,11 +3135,11 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -3031,29 +3167,32 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,17 +3287,17 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3169,8 +3314,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,29 +3485,32 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,40 +3771,43 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="E72" s="3">
         <v>-44300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1200</v>
+        <v>-44300</v>
       </c>
       <c r="G72" s="3">
         <v>-1200</v>
       </c>
       <c r="H72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-200</v>
       </c>
       <c r="M72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-100</v>
@@ -3649,10 +3822,13 @@
         <v>-100</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,35 +3983,38 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
-        <v>-100</v>
-      </c>
       <c r="H76" s="3">
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,13 +4159,13 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-43100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -3983,7 +4177,7 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,16 +4223,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -4052,8 +4250,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,34 +4539,37 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4371,13 +4587,16 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -4422,8 +4642,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,16 +4772,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -4572,8 +4801,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4828,23 +5073,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4861,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,35 +5164,38 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,14 +768,14 @@
         <v>600</v>
       </c>
       <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -795,32 +803,38 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,32 +862,38 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1092,20 +1138,20 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,40 +1204,42 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1205,40 +1259,46 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1258,8 +1318,14 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,14 +1359,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-43100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1332,23 +1400,29 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,40 +1459,46 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1438,28 +1518,34 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-43100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1468,10 +1554,10 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1491,8 +1577,14 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1511,20 +1603,20 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,28 +1695,34 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-43100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1627,10 +1731,10 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1650,28 +1754,34 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-43100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1680,10 +1790,10 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1703,8 +1813,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,14 +2067,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>43100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1968,28 +2108,34 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-43100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1998,10 +2144,10 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2021,8 +2167,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,28 +2226,34 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-43100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2104,10 +2262,10 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2127,66 +2285,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2399,43 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,40 +2513,46 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2383,11 +2569,17 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,13 +2649,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2468,11 +2666,11 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2483,50 +2681,56 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2537,16 +2741,22 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2621,11 +2837,11 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2639,11 +2855,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2651,31 +2867,37 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3162,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E54" s="3">
         <v>1300</v>
       </c>
       <c r="F54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2961,16 +3213,22 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,32 +3271,34 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -3064,16 +3326,22 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3082,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -3105,11 +3373,11 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3117,35 +3385,41 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3170,8 +3444,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,26 +3459,26 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3290,20 +3582,20 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3317,11 +3609,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3798,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,26 +3813,26 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
@@ -3541,8 +3857,14 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4116,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,37 +4131,37 @@
         <v>-44400</v>
       </c>
       <c r="E72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-44300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-44300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-100</v>
       </c>
       <c r="P72" s="3">
         <v>-100</v>
@@ -3825,10 +4173,16 @@
         <v>-100</v>
       </c>
       <c r="S72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4352,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="F76" s="3">
         <v>400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>600</v>
       </c>
       <c r="G76" s="3">
         <v>500</v>
       </c>
       <c r="H76" s="3">
+        <v>600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
@@ -4039,8 +4411,14 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,86 +4470,98 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-43100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4180,10 +4570,10 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -4203,8 +4593,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,11 +4633,11 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -4253,11 +4651,11 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,41 +4970,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4590,13 +5024,19 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,11 +5069,11 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4645,11 +5087,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,11 +5246,11 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -4804,11 +5264,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5076,26 +5568,26 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5109,13 +5601,19 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,41 +5665,47 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,102 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
@@ -774,11 +778,11 @@
         <v>600</v>
       </c>
       <c r="J8" s="3">
+        <v>600</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,10 +828,10 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -833,11 +840,11 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,22 +875,25 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
       </c>
       <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -892,11 +902,11 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1153,8 +1176,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,25 +1232,26 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
@@ -1233,7 +1260,7 @@
         <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1242,7 +1269,7 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1265,8 +1292,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,22 +1307,22 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1301,7 +1331,7 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1365,11 +1399,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-43100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1418,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,11 +1516,11 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1488,20 +1528,20 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1524,8 +1564,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1536,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-43100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1560,7 +1603,7 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1583,8 +1626,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1609,8 +1655,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1618,8 +1664,8 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,31 +1750,34 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-43100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1737,7 +1789,7 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1760,31 +1812,34 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-43100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1796,7 +1851,7 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1819,8 +1874,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2073,11 +2143,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>43100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2114,31 +2184,34 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-43100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2150,7 +2223,7 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2173,8 +2246,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,31 +2308,34 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-43100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2268,7 +2347,7 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2291,72 +2370,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,44 +2487,45 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,43 +2609,46 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2575,11 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,13 +2733,16 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2655,10 +2754,10 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2672,8 +2771,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2687,53 +2786,56 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1000</v>
       </c>
       <c r="F46" s="3">
         <v>1000</v>
       </c>
       <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
         <v>1200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>900</v>
       </c>
       <c r="I46" s="3">
         <v>900</v>
       </c>
       <c r="J46" s="3">
+        <v>900</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2747,16 +2849,19 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,13 +2919,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2829,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2843,8 +2951,8 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2861,8 +2969,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,8 +2995,8 @@
       <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2899,8 +3010,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,44 +3291,47 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1000</v>
       </c>
       <c r="I54" s="3">
         <v>1000</v>
       </c>
       <c r="J54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3219,16 +3345,19 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,22 +3403,23 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3297,11 +3428,11 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,8 +3477,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3356,19 +3490,19 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3379,8 +3513,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,25 +3525,28 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3418,11 +3555,11 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
@@ -3450,38 +3587,41 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3588,17 +3734,17 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3615,8 +3761,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,38 +3959,41 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4137,34 +4311,34 @@
         <v>-44400</v>
       </c>
       <c r="G72" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="H72" s="3">
         <v>-44300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1200</v>
+        <v>-44300</v>
       </c>
       <c r="J72" s="3">
         <v>-1200</v>
       </c>
       <c r="K72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-200</v>
       </c>
       <c r="O72" s="3">
         <v>-200</v>
       </c>
       <c r="P72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q72" s="3">
         <v>-100</v>
@@ -4179,10 +4353,13 @@
         <v>-100</v>
       </c>
       <c r="U72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,44 +4541,47 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E76" s="3">
         <v>800</v>
       </c>
       <c r="F76" s="3">
+        <v>800</v>
+      </c>
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
       <c r="K76" s="3">
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,95 +4665,101 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-43100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -4576,7 +4771,7 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -4599,8 +4794,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4639,8 +4838,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -4657,8 +4856,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,43 +5190,46 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5030,13 +5247,16 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5075,8 +5296,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -5093,8 +5314,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5252,8 +5482,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5270,8 +5500,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5574,23 +5820,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5853,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,44 +5920,47 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
       </c>
       <c r="F8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
@@ -781,14 +788,14 @@
         <v>600</v>
       </c>
       <c r="K8" s="3">
+        <v>600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>600</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -816,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,26 +844,26 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,41 +891,47 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
       </c>
       <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>500</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -940,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,11 +1209,11 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1179,11 +1224,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,49 +1284,51 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1295,49 +1348,55 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1357,8 +1416,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,16 +1446,18 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1402,14 +1469,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-43100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1443,32 +1510,38 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,8 +1578,14 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,35 +1598,35 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1567,8 +1646,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,28 +1661,28 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-43100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1606,10 +1691,10 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1629,8 +1714,14 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1658,20 +1749,20 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1691,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,37 +1850,43 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-43100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1792,10 +1895,10 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1815,37 +1918,43 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-43100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1854,10 +1963,10 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1877,8 +1986,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,16 +2258,22 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2146,14 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>43100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2187,37 +2326,43 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-43100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2226,10 +2371,10 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2249,8 +2394,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,37 +2462,43 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-43100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2350,10 +2507,10 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2373,75 +2530,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,50 +2659,52 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2723,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,49 +2791,55 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>700</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2671,11 +2856,17 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,19 +2927,25 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2757,13 +2954,13 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2774,11 +2971,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2789,59 +2986,65 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2852,16 +3055,22 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,25 +3131,31 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2954,11 +3169,11 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2972,11 +3187,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -2984,25 +3199,31 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -3013,11 +3234,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,50 +3539,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1100</v>
       </c>
       <c r="H54" s="3">
         <v>1300</v>
       </c>
       <c r="I54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3348,16 +3599,22 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,41 +3663,43 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3466,19 +3727,25 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3493,22 +3760,22 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3516,11 +3783,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3528,44 +3795,50 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -3590,44 +3863,50 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -3652,8 +3931,14 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,13 +3999,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3737,20 +4028,20 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3764,11 +4055,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,44 +4271,50 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
       </c>
       <c r="H66" s="3">
+        <v>500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
@@ -4024,8 +4339,14 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,16 +4637,22 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44400</v>
+        <v>-44600</v>
       </c>
       <c r="E72" s="3">
-        <v>-44400</v>
+        <v>-44600</v>
       </c>
       <c r="F72" s="3">
         <v>-44400</v>
@@ -4314,37 +4661,37 @@
         <v>-44400</v>
       </c>
       <c r="H72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-44300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-44300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-100</v>
       </c>
       <c r="S72" s="3">
         <v>-100</v>
@@ -4356,10 +4703,16 @@
         <v>-100</v>
       </c>
       <c r="V72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,50 +4909,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>500</v>
+      </c>
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>600</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
       </c>
       <c r="K76" s="3">
+        <v>600</v>
+      </c>
+      <c r="L76" s="3">
+        <v>500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
@@ -4606,8 +4977,14 @@
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,104 +5045,116 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-43100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -4774,10 +5163,10 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4797,8 +5186,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4841,11 +5238,11 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4859,11 +5256,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,50 +5620,56 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5250,13 +5683,19 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5299,11 +5740,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5317,11 +5758,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5485,11 +5944,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5503,11 +5962,11 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,13 +6284,19 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5823,26 +6314,26 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5856,13 +6347,19 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,50 +6420,56 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,10 +777,10 @@
         <v>600</v>
       </c>
       <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>600</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
@@ -794,11 +798,11 @@
         <v>600</v>
       </c>
       <c r="M8" s="3">
+        <v>600</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,10 +857,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -862,11 +869,11 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,19 +919,19 @@
         <v>500</v>
       </c>
       <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
       </c>
       <c r="H10" s="3">
         <v>500</v>
       </c>
       <c r="I10" s="3">
+        <v>500</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -930,11 +940,11 @@
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1215,8 +1238,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1230,8 +1253,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,34 +1312,35 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1322,7 +1349,7 @@
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1331,7 +1358,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1354,20 +1381,23 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1375,22 +1405,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1399,7 +1429,7 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,20 +1481,21 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1475,11 +1509,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-43100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1516,19 +1550,22 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1537,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>-100</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1604,11 +1644,11 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1616,20 +1656,20 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1652,20 +1692,23 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1673,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-43100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1697,7 +1740,7 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1720,8 +1763,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1755,8 +1801,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1764,8 +1810,8 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,40 +1905,43 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-43100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1901,7 +1953,7 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -1924,40 +1976,43 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-43100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1969,7 +2024,7 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,19 +2331,22 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2291,11 +2361,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>43100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2332,40 +2402,43 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-43100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2377,7 +2450,7 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,40 +2544,43 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-43100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2513,7 +2592,7 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,53 +2747,54 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
       </c>
       <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
+        <v>400</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,52 +2887,55 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2862,11 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2944,11 +3043,11 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2960,10 +3059,10 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2977,8 +3076,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2992,62 +3091,65 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1300</v>
       </c>
       <c r="F46" s="3">
         <v>1300</v>
       </c>
       <c r="G46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H46" s="3">
         <v>1100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
       </c>
       <c r="I46" s="3">
         <v>1000</v>
       </c>
       <c r="J46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>900</v>
       </c>
       <c r="L46" s="3">
         <v>900</v>
       </c>
       <c r="M46" s="3">
+        <v>900</v>
+      </c>
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -3061,16 +3163,19 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,19 +3254,19 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3175,8 +3283,8 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3193,8 +3301,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3217,7 +3328,7 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -3225,8 +3336,8 @@
       <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3240,8 +3351,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,53 +3668,56 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1000</v>
       </c>
       <c r="L54" s="3">
         <v>1000</v>
       </c>
       <c r="M54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3605,16 +3731,19 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,31 +3795,32 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3698,11 +3829,11 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3766,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3789,8 +3923,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3801,34 +3935,37 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -3837,11 +3974,11 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -3869,47 +4006,50 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,7 +4160,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4034,17 +4180,17 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4061,8 +4207,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,47 +4432,50 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,19 +4814,22 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44600</v>
+        <v>-44800</v>
       </c>
       <c r="E72" s="3">
         <v>-44600</v>
       </c>
       <c r="F72" s="3">
-        <v>-44400</v>
+        <v>-44600</v>
       </c>
       <c r="G72" s="3">
         <v>-44400</v>
@@ -4667,34 +4841,34 @@
         <v>-44400</v>
       </c>
       <c r="J72" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="K72" s="3">
         <v>-44300</v>
       </c>
       <c r="L72" s="3">
-        <v>-1200</v>
+        <v>-44300</v>
       </c>
       <c r="M72" s="3">
         <v>-1200</v>
       </c>
       <c r="N72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-200</v>
       </c>
       <c r="R72" s="3">
         <v>-200</v>
       </c>
       <c r="S72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T72" s="3">
         <v>-100</v>
@@ -4709,10 +4883,13 @@
         <v>-100</v>
       </c>
       <c r="X72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,53 +5098,56 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>800</v>
       </c>
       <c r="H76" s="3">
         <v>800</v>
       </c>
       <c r="I76" s="3">
+        <v>800</v>
+      </c>
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
       <c r="N76" s="3">
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,113 +5240,119 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-43100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -5169,7 +5364,7 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5244,8 +5443,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -5262,8 +5461,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,52 +5840,55 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5689,13 +5906,16 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5746,8 +5967,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5764,8 +5985,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5950,8 +6180,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -5968,8 +6198,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,16 +6533,19 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -6320,23 +6566,23 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6353,13 +6599,16 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,53 +6675,56 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>ELVG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,10 +784,10 @@
         <v>600</v>
       </c>
       <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>600</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>
@@ -801,11 +805,11 @@
         <v>600</v>
       </c>
       <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,10 +867,10 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -872,11 +879,11 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,19 +932,19 @@
         <v>500</v>
       </c>
       <c r="G10" s="3">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>500</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
       </c>
       <c r="J10" s="3">
+        <v>500</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
@@ -943,11 +953,11 @@
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1241,8 +1264,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1256,8 +1279,8 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,37 +1339,38 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
@@ -1352,7 +1379,7 @@
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1361,7 +1388,7 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -1384,23 +1411,26 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1408,22 +1438,22 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1432,7 +1462,7 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1455,8 +1485,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,23 +1515,24 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1512,11 +1546,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-43100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1553,22 +1587,25 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1577,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>-100</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1647,11 +1687,11 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1659,20 +1699,20 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1695,8 +1735,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1704,14 +1747,14 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1719,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-43100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1743,7 +1786,7 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -1766,8 +1809,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,8 +1850,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1813,8 +1859,8 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,43 +1957,46 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-43100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1956,7 +2008,7 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -1979,43 +2031,46 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-43100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -2027,7 +2082,7 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -2050,8 +2105,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,22 +2401,25 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2364,11 +2434,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>43100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2405,43 +2475,46 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-43100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2453,7 +2526,7 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2476,8 +2549,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,43 +2623,46 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-43100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2595,7 +2674,7 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -2618,84 +2697,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2757,47 +2844,47 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
       </c>
       <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2899,46 +2992,46 @@
         <v>1000</v>
       </c>
       <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>500</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2958,11 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3046,11 +3145,11 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3062,10 +3161,10 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -3079,8 +3178,8 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3094,65 +3193,68 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1300</v>
       </c>
       <c r="G46" s="3">
         <v>1300</v>
       </c>
       <c r="H46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I46" s="3">
         <v>1100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
       </c>
       <c r="J46" s="3">
         <v>1000</v>
       </c>
       <c r="K46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="3">
         <v>1200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>900</v>
       </c>
       <c r="M46" s="3">
         <v>900</v>
       </c>
       <c r="N46" s="3">
+        <v>900</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3166,16 +3268,19 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3257,19 +3365,19 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3286,8 +3394,8 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3304,8 +3412,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3316,13 +3424,16 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -3331,7 +3442,7 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -3339,8 +3450,8 @@
       <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -3354,8 +3465,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,47 +3806,47 @@
         <v>1600</v>
       </c>
       <c r="E54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1000</v>
       </c>
       <c r="M54" s="3">
         <v>1000</v>
       </c>
       <c r="N54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3734,16 +3860,19 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3">
         <v>100</v>
       </c>
       <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,34 +3926,35 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3832,11 +3963,11 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3903,19 +4037,19 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3926,8 +4060,8 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,28 +4084,28 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3977,11 +4114,11 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -4009,8 +4146,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,41 +4158,41 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,19 +4294,22 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4183,17 +4329,17 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -4210,8 +4356,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4590,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,41 +4602,41 @@
         <v>1300</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4988,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,13 +5000,13 @@
         <v>-44800</v>
       </c>
       <c r="E72" s="3">
-        <v>-44600</v>
+        <v>-44800</v>
       </c>
       <c r="F72" s="3">
         <v>-44600</v>
       </c>
       <c r="G72" s="3">
-        <v>-44400</v>
+        <v>-44600</v>
       </c>
       <c r="H72" s="3">
         <v>-44400</v>
@@ -4844,34 +5018,34 @@
         <v>-44400</v>
       </c>
       <c r="K72" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="L72" s="3">
         <v>-44300</v>
       </c>
       <c r="M72" s="3">
-        <v>-1200</v>
+        <v>-44300</v>
       </c>
       <c r="N72" s="3">
         <v>-1200</v>
       </c>
       <c r="O72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-200</v>
       </c>
       <c r="S72" s="3">
         <v>-200</v>
       </c>
       <c r="T72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U72" s="3">
         <v>-100</v>
@@ -4886,10 +5060,13 @@
         <v>-100</v>
       </c>
       <c r="Y72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5284,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5110,47 +5296,47 @@
         <v>300</v>
       </c>
       <c r="E76" s="3">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>800</v>
       </c>
       <c r="I76" s="3">
         <v>800</v>
       </c>
       <c r="J76" s="3">
+        <v>800</v>
+      </c>
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
       <c r="O76" s="3">
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,119 +5432,125 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-43100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -5367,7 +5562,7 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -5390,8 +5585,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5446,8 +5645,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -5464,8 +5663,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,55 +6057,58 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5909,13 +6126,16 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5970,8 +6191,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5988,8 +6209,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6183,8 +6413,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -6201,8 +6431,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6547,8 +6793,8 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -6569,23 +6815,23 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6602,13 +6848,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,56 +6927,59 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
